--- a/misc/exer_aula_7.xlsx
+++ b/misc/exer_aula_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>Total</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>z</t>
-  </si>
-  <si>
-    <t>n medias</t>
   </si>
   <si>
     <t>D</t>
@@ -347,9 +344,6 @@
     <t>existe diferença entre as médias</t>
   </si>
   <si>
-    <t>dos tratamentos Piranão e Ag156, com a média do Ag152 é maior.</t>
-  </si>
-  <si>
     <t>Conclusão para contraste a</t>
   </si>
   <si>
@@ -375,6 +369,33 @@
   </si>
   <si>
     <t>Piranao e Opaco2)  é diferente da média do Comp Flint.</t>
+  </si>
+  <si>
+    <t>4 médias</t>
+  </si>
+  <si>
+    <t>2 médias</t>
+  </si>
+  <si>
+    <t>3 médias</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m3-m4</t>
+  </si>
+  <si>
+    <t>m3-m2</t>
+  </si>
+  <si>
+    <t>m4-m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dos tratamentos Piranão e Ag152, </t>
+  </si>
+  <si>
+    <t>com a média do Ag152 é maior.</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2094,34 +2115,34 @@
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="32">
-        <f>SUM(B2:B5)</f>
+        <f t="shared" ref="B6:G6" si="0">SUM(B2:B5)</f>
         <v>16381</v>
       </c>
       <c r="C6" s="32">
-        <f>SUM(C2:C5)</f>
+        <f t="shared" si="0"/>
         <v>15500</v>
       </c>
       <c r="D6" s="32">
-        <f>SUM(D2:D5)</f>
+        <f t="shared" si="0"/>
         <v>20632</v>
       </c>
       <c r="E6" s="32">
-        <f>SUM(E2:E5)</f>
+        <f t="shared" si="0"/>
         <v>21782</v>
       </c>
       <c r="F6" s="32">
-        <f>SUM(F2:F5)</f>
+        <f t="shared" si="0"/>
         <v>21756</v>
       </c>
       <c r="G6" s="25">
-        <f>SUM(G2:G5)</f>
+        <f t="shared" si="0"/>
         <v>96051</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="30">
         <f>SUMSQ(B2:F5)</f>
@@ -2281,32 +2302,32 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2319,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,49 +2565,52 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -2594,10 +2618,10 @@
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2611,9 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2753,7 +2775,7 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="35">
         <f>B12-B13</f>
@@ -2819,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,17 +2890,14 @@
         <f>C2</f>
         <v>230.69929923315038</v>
       </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2920,11 +2939,19 @@
         <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5">
-        <f>J4*SQRT(Anova!D13/5)</f>
+        <f>J4*SQRT(Anova!$D$13/5)</f>
         <v>768.22866644639078</v>
+      </c>
+      <c r="K5">
+        <f>K4*SQRT(Anova!$D$13/5)</f>
+        <v>745.15873652307573</v>
+      </c>
+      <c r="L5">
+        <f>L4*SQRT(Anova!$D$13/5)</f>
+        <v>710.55384163810322</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2956,7 +2983,15 @@
       <c r="B11" s="36">
         <v>6781</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2965,6 +3000,29 @@
       <c r="B12" s="37">
         <v>5036.6000000000004</v>
       </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="35">
+        <f>B11-B14</f>
+        <v>3660.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="35">
+        <f>B11-B12</f>
+        <v>1744.3999999999996</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2973,6 +3031,19 @@
       <c r="B13" s="37">
         <v>4272.3999999999996</v>
       </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="35">
+        <f t="shared" ref="I13:I14" si="0">B12-B13</f>
+        <v>764.20000000000073</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -2981,18 +3052,59 @@
       <c r="B14" s="38">
         <v>3120.2</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="35">
+        <f t="shared" si="0"/>
+        <v>1152.1999999999998</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="35"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="35">
+        <f>B11-B13</f>
+        <v>2508.6000000000004</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="35">
+        <f>B12-B14</f>
+        <v>1916.4000000000005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="35"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="35"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="35"/>
     </row>
   </sheetData>
@@ -3005,9 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3248,7 +3358,7 @@
         <v>98.061005971822524</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="34">
         <f>_xlfn.F.INV.RT(5%,1,12)</f>
@@ -3279,7 +3389,7 @@
         <v>29.487418963902886</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3384,41 +3494,41 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/misc/exer_aula_7.xlsx
+++ b/misc/exer_aula_7.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DE3DD-B7DE-4C97-9FCE-996EFF0C80B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anova" sheetId="3" r:id="rId1"/>
     <sheet name="Teste t" sheetId="7" r:id="rId2"/>
     <sheet name="Tukey" sheetId="4" r:id="rId3"/>
     <sheet name="Duncan" sheetId="5" r:id="rId4"/>
-    <sheet name="Desdobramento GL" sheetId="6" r:id="rId5"/>
+    <sheet name="Lista-10" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
   <si>
     <t>Total</t>
   </si>
@@ -58,9 +72,6 @@
     <t>Res</t>
   </si>
   <si>
-    <t>Desdobrar os graus de liberdade de tratamentos para estudar:</t>
-  </si>
-  <si>
     <t>Coef_a</t>
   </si>
   <si>
@@ -71,37 +82,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Y²</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c²</t>
-    </r>
-  </si>
-  <si>
-    <t>SQY</t>
   </si>
   <si>
     <t>Tratamentos</t>
@@ -344,33 +324,6 @@
     <t>existe diferença entre as médias</t>
   </si>
   <si>
-    <t>Conclusão para contraste a</t>
-  </si>
-  <si>
-    <t>Conclusão para contraste b</t>
-  </si>
-  <si>
-    <t>Conclusão para contraste c</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>Rejeitamos H0 a 1% e concluímos que a média do grupo (AG152</t>
-  </si>
-  <si>
-    <t>Rejeitamos H0 a 5% econcluímos que a média de AG125</t>
-  </si>
-  <si>
-    <t>é diferente da média de Piranão.</t>
-  </si>
-  <si>
-    <t>.Piranao)  é diferente da média do Opaco 2</t>
-  </si>
-  <si>
-    <t>Piranao e Opaco2)  é diferente da média do Comp Flint.</t>
-  </si>
-  <si>
     <t>4 médias</t>
   </si>
   <si>
@@ -396,17 +349,62 @@
   </si>
   <si>
     <t>com a média do Ag152 é maior.</t>
+  </si>
+  <si>
+    <t>Blocos</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Total (T)</t>
+  </si>
+  <si>
+    <t>1-CB 41/70</t>
+  </si>
+  <si>
+    <t>2-CB 41/76</t>
+  </si>
+  <si>
+    <t>3-CB 40/19</t>
+  </si>
+  <si>
+    <t>4-Co 419</t>
+  </si>
+  <si>
+    <t>5-Co 421</t>
+  </si>
+  <si>
+    <t>Total (B)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,13 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -575,20 +566,6 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -783,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -980,15 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -998,15 +966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1063,6 +1022,35 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1112,93 +1100,92 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1230,10 +1217,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1274,7 +1261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1329,7 +1322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1384,7 +1383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1439,7 +1444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1499,7 +1510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1554,7 +1571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1614,7 +1637,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1636,66 +1665,6 @@
         <a:xfrm>
           <a:off x="65483" y="1744266"/>
           <a:ext cx="1613297" cy="392950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565949</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>86122</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4235450" y="996950"/>
-          <a:ext cx="1207300" cy="613172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,208 +1948,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="G1" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="B2" s="12">
         <v>2812</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="12">
         <v>2296</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="12">
         <v>3501</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="12">
         <v>3301</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="12">
         <v>3691</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="13">
         <f>SUM(B2:F2)</f>
         <v>15601</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12">
         <v>3728</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="12">
         <v>3588</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="12">
         <v>4418</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="12">
         <v>4544</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="12">
         <v>5084</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="13">
         <f>SUM(B3:F3)</f>
         <v>21362</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12">
         <v>5359</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <v>5106</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="12">
         <v>7477</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="12">
         <v>8007</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="12">
         <v>7956</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="13">
         <f>SUM(B4:F4)</f>
         <v>33905</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="19">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12">
         <v>4482</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <v>4510</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="12">
         <v>5236</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="12">
         <v>5930</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="12">
         <v>5025</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="13">
         <f>SUM(B5:F5)</f>
         <v>25183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="32">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="25">
         <f t="shared" ref="B6:G6" si="0">SUM(B2:B5)</f>
         <v>16381</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
         <v>15500</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
         <v>20632</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>21782</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="25">
         <f t="shared" si="0"/>
         <v>21756</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>96051</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="30">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="23">
         <f>SUMSQ(B2:F5)</f>
         <v>509106763</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="24">
         <f>G6*G6/(20)</f>
         <v>461289730.05000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="21">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14">
         <f>G6/4/5</f>
         <v>4802.55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2203,9 +2169,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>32</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2222,17 +2188,17 @@
         <f>D11/D13</f>
         <v>8.6633838657451516</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="26">
         <f>_xlfn.F.INV.RT(5%,B11,B13)</f>
         <v>3.2591667269012499</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="26">
         <f>_xlfn.F.INV.RT(1%,B11,B13)</f>
         <v>5.4119514344731394</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -2250,17 +2216,17 @@
         <f>D12/D13</f>
         <v>44.344958710812854</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="26">
         <f>_xlfn.F.INV.RT(5%,B12,B13)</f>
         <v>3.4902948194976045</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="26">
         <f>_xlfn.F.INV.RT(1%,B12,B13)</f>
         <v>5.9525446815458682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -2275,7 +2241,7 @@
         <v>266110.83333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2291,43 +2257,43 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>33</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B15">
         <f>100*SQRT(D13)/G8</f>
         <v>10.741362722863673</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2337,50 +2303,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="36">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28">
         <v>3120.2</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="7"/>
       <c r="E2">
         <v>1</v>
       </c>
@@ -2391,14 +2357,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="37">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="29">
         <v>4272.3999999999996</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="8"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -2409,14 +2375,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="37">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="29">
         <v>6781</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="8"/>
       <c r="E4">
         <v>-3</v>
       </c>
@@ -2427,14 +2393,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="38">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="30">
         <v>5036.6000000000004</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="9"/>
       <c r="E5">
         <v>1</v>
       </c>
@@ -2445,32 +2411,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="41" t="s">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <f>SUMPRODUCT(E2:E5,B2:B5)</f>
@@ -2485,11 +2451,11 @@
         <v>-764.20000000000073</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="50">
+        <v>36</v>
+      </c>
+      <c r="F10" s="37">
         <f>SUMSQ(E2:E5)/5*Anova!D13</f>
         <v>638665.99999999988</v>
       </c>
@@ -2502,12 +2468,12 @@
         <v>106444.33333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
       <c r="F11">
         <f>SQRT(F10)</f>
@@ -2522,9 +2488,9 @@
         <v>326.25807780549025</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <f>F9/F11</f>
@@ -2539,89 +2505,89 @@
         <v>-2.3423174841838073</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="51">
+        <v>39</v>
+      </c>
+      <c r="F13" s="38">
         <f>_xlfn.T.INV.2T(5%,12)</f>
         <v>2.1788128296672284</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="51">
+        <v>40</v>
+      </c>
+      <c r="F14" s="38">
         <f>_xlfn.T.INV.2T(1%,12)</f>
         <v>3.0545395893929017</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>46</v>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
         <v>82</v>
       </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
         <v>84</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2632,203 +2598,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="36">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28">
         <v>3120.2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <f>SQRT(Anova!D13/5)</f>
         <v>230.69929923315038</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="37">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="29">
         <v>4272.3999999999996</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <f>C2</f>
         <v>230.69929923315038</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="37">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="29">
         <v>6781</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <f>C3</f>
         <v>230.69929923315038</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <f>SQRT(Anova!D13/5)</f>
         <v>230.69929923315038</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="38">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="30">
         <v>5036.6000000000004</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <f>C4</f>
         <v>230.69929923315038</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <f>J4*J3</f>
         <v>968.93705677923163</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="36">
+        <v>45</v>
+      </c>
+      <c r="B11" s="28">
         <v>6781</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="35">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27">
         <f>B11-B12</f>
         <v>1744.3999999999996</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="29">
         <v>5036.6000000000004</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="35">
+        <v>85</v>
+      </c>
+      <c r="E12" s="27">
         <f>B12-B13</f>
         <v>764.20000000000073</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="29">
         <v>4272.3999999999996</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="35">
+        <v>60</v>
+      </c>
+      <c r="E13" s="27">
         <f>B12-B14</f>
         <v>1916.4000000000005</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="30">
         <v>3120.2</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="35">
+        <v>59</v>
+      </c>
+      <c r="E14" s="27">
         <f>B13-B14</f>
         <v>1152.1999999999998</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A11:B14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B14">
     <sortCondition descending="1" ref="B11:B14"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2838,81 +2804,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="36">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28">
         <v>3120.2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <f>SQRT(Anova!D13/5)</f>
         <v>230.69929923315038</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="37">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="29">
         <v>4272.3999999999996</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <f>C2</f>
         <v>230.69929923315038</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="37">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="29">
         <v>6781</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <f>C3</f>
         <v>230.69929923315038</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J4">
         <v>3.33</v>
@@ -2924,22 +2890,22 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="38">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="30">
         <v>5036.6000000000004</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <f>C4</f>
         <v>230.69929923315038</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
       </c>
       <c r="J5">
         <f>J4*SQRT(Anova!$D$13/5)</f>
@@ -2954,158 +2920,158 @@
         <v>710.55384163810322</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="36">
+        <v>45</v>
+      </c>
+      <c r="B11" s="28">
         <v>6781</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="37">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="29">
         <v>5036.6000000000004</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="35">
+        <v>92</v>
+      </c>
+      <c r="E12" s="27">
         <f>B11-B14</f>
         <v>3660.8</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="35">
+        <v>92</v>
+      </c>
+      <c r="I12" s="27">
         <f>B11-B12</f>
         <v>1744.3999999999996</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="29">
         <v>4272.3999999999996</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="35">
+        <v>94</v>
+      </c>
+      <c r="I13" s="27">
         <f t="shared" ref="I13:I14" si="0">B12-B13</f>
         <v>764.20000000000073</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="30">
         <v>3120.2</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="35">
+        <v>59</v>
+      </c>
+      <c r="I14" s="27">
         <f t="shared" si="0"/>
         <v>1152.1999999999998</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="35">
+        <v>93</v>
+      </c>
+      <c r="E15" s="27">
         <f>B11-B13</f>
         <v>2508.6000000000004</v>
       </c>
       <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="35">
+      <c r="E16" s="27">
         <f>B12-B14</f>
         <v>1916.4000000000005</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="35"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3114,425 +3080,192 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC953D0-2DEE-4BB8-97BD-99A7A53EA9A7}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="189" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="15">
-        <v>15601</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="16">
-        <v>21362</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="16">
-        <v>33905</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="17">
-        <v>25183</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3">
+        <v>131.1</v>
+      </c>
+      <c r="C3">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="D3">
+        <v>141.9</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="G3">
+        <v>146.5</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>140.6</v>
+      </c>
+      <c r="C4">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="D4">
+        <v>148.5</v>
+      </c>
+      <c r="E4">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="F4">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="G4">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="C5">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <v>137.6</v>
+      </c>
+      <c r="E5">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="F5">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="G5">
+        <v>154.9</v>
+      </c>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>112.9</v>
+      </c>
       <c r="C6">
-        <f>SUMPRODUCT(B2:B5,C2:C5)</f>
-        <v>-39569</v>
+        <v>122</v>
       </c>
       <c r="D6">
-        <f>SUMPRODUCT(B2:B5,D2:D5)</f>
-        <v>15343</v>
+        <v>122.6</v>
       </c>
       <c r="E6">
-        <f>SUMPRODUCT(B2:B5,E2:E5)</f>
-        <v>-3821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>107.5</v>
+      </c>
+      <c r="F6">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="G6">
+        <v>141</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>117.9</v>
       </c>
       <c r="C7">
-        <f>C6*C6</f>
-        <v>1565705761</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D7">
-        <f>D6*D6</f>
-        <v>235407649</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="E7">
-        <f>E6*E6</f>
-        <v>14600041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <f>SUMSQ(C2:C5)</f>
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <f>SUMSQ(D2:D5)</f>
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <f>SUMSQ(E2:E5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <f>C7/C8/C9</f>
-        <v>26095096.016666666</v>
-      </c>
-      <c r="D10">
-        <f>D7/D8/D9</f>
-        <v>7846921.6333333328</v>
-      </c>
-      <c r="E10">
-        <f>E7/E8/E9</f>
-        <v>1460004.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f>C10</f>
-        <v>26095096.016666666</v>
-      </c>
-      <c r="D13">
-        <f>C13/B13</f>
-        <v>26095096.016666666</v>
-      </c>
-      <c r="E13">
-        <f>D13/D18</f>
-        <v>98.061005971822524</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="34">
-        <f>_xlfn.F.INV.RT(5%,1,12)</f>
-        <v>4.7472253467225149</v>
-      </c>
-      <c r="H13" s="34">
-        <f>_xlfn.F.INV.RT(1%,1,12)</f>
-        <v>9.3302121031685576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f>D10</f>
-        <v>7846921.6333333328</v>
-      </c>
-      <c r="D14">
-        <f>C14/B14</f>
-        <v>7846921.6333333328</v>
-      </c>
-      <c r="E14">
-        <f>D14/D18</f>
-        <v>29.487418963902886</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f>E10</f>
-        <v>1460004.1</v>
-      </c>
-      <c r="D15">
-        <f>C15/B15</f>
-        <v>1460004.1</v>
-      </c>
-      <c r="E15">
-        <f>D15/D18</f>
-        <v>5.4864511967131495</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="48">
-        <v>3</v>
-      </c>
-      <c r="C16" s="48">
-        <v>35402021.75</v>
-      </c>
-      <c r="D16" s="48">
-        <v>11800673.916666666</v>
-      </c>
-      <c r="E16" s="48">
-        <v>44.344958710812854</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>9221681.1999999881</v>
-      </c>
-      <c r="D17">
-        <v>2305420.299999997</v>
-      </c>
-      <c r="E17">
-        <v>8.6633838657451516</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>3193330</v>
-      </c>
-      <c r="D18">
-        <v>266110.83333333331</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>47817032.949999988</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>10.741362722863673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F7">
+        <v>148.4</v>
+      </c>
+      <c r="G7">
+        <v>157.1</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/misc/exer_aula_7.xlsx
+++ b/misc/exer_aula_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DE3DD-B7DE-4C97-9FCE-996EFF0C80B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62881B1-EABD-40CA-8C09-866B912A17CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anova" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>Total</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>Total (B)</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>V</t>
@@ -1100,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1171,21 +1168,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1955,14 +1955,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>21362</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>33905</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>25183</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="25">
         <f t="shared" ref="B6:G6" si="0">SUM(B2:B5)</f>
@@ -2108,7 +2108,7 @@
         <v>96051</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>69</v>
@@ -2127,7 +2127,7 @@
         <v>461289730.05000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2141,12 +2141,12 @@
         <v>4802.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>5.4119514344731394</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>5.9525446815458682</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>266110.83333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2266,32 +2266,32 @@
         <v>10.741362722863673</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2310,16 +2310,16 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="33" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>14</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>-764.20000000000073</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>106444.33333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>32</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>326.25807780549025</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>-2.3423174841838073</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>39</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>2.1788128296672284</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>40</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>3.0545395893929017</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>33</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>77</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>78</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>79</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>34</v>
       </c>
@@ -2603,14 +2603,14 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>230.69929923315038</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>230.69929923315038</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -2692,13 +2692,13 @@
         <v>968.93705677923163</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -2811,12 +2811,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -2920,12 +2920,12 @@
         <v>710.55384163810322</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
@@ -2933,8 +2933,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>93</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>60</v>
       </c>
@@ -3059,18 +3059,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="27"/>
     </row>
   </sheetData>
@@ -3081,55 +3081,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC953D0-2DEE-4BB8-97BD-99A7A53EA9A7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="189" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -3142,8 +3144,8 @@
       <c r="D3">
         <v>141.9</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>109</v>
+      <c r="E3" s="42">
+        <v>128.42500000000001</v>
       </c>
       <c r="F3">
         <v>143.69999999999999</v>
@@ -3151,9 +3153,12 @@
       <c r="G3">
         <v>146.5</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="48">
+        <f>SUM(B3:G3)</f>
+        <v>831.82500000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3175,9 +3180,12 @@
       <c r="G4">
         <v>156.19999999999999</v>
       </c>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="27">
+        <f>SUM(B4:G4)</f>
+        <v>889.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -3199,9 +3207,12 @@
       <c r="G5">
         <v>154.9</v>
       </c>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="27">
+        <f>SUM(B5:G5)</f>
+        <v>865.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3223,9 +3234,12 @@
       <c r="G6">
         <v>141</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="27">
+        <f>SUM(B6:G6)</f>
+        <v>739.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3247,19 +3261,58 @@
       <c r="G7">
         <v>157.1</v>
       </c>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="H7" s="27">
+        <f>SUM(B7:G7)</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="B8" s="43">
+        <f>SUM(B3:B7)</f>
+        <v>634.19999999999993</v>
+      </c>
+      <c r="C8" s="43">
+        <f>SUM(C3:C7)</f>
+        <v>687.8</v>
+      </c>
+      <c r="D8" s="43">
+        <f>SUM(D3:D7)</f>
+        <v>683.40000000000009</v>
+      </c>
+      <c r="E8" s="47">
+        <f>SUM(E3:E7)</f>
+        <v>636.92499999999995</v>
+      </c>
+      <c r="F8" s="43">
+        <f>SUM(F3:F7)</f>
+        <v>729.9</v>
+      </c>
+      <c r="G8" s="43">
+        <f>SUM(G3:G7)</f>
+        <v>755.7</v>
+      </c>
+      <c r="H8" s="49">
+        <f>SUM(B3:G7)</f>
+        <v>4127.9250000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="26">
+        <f>H8^2/30</f>
+        <v>567992.1601875003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="38">
+        <f>SUMSQ(H3:H7)</f>
+        <v>3421515.5206249999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
